--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="273">
   <si>
     <t>날짜</t>
   </si>
@@ -805,6 +805,9 @@
   </si>
   <si>
     <t>인터파크 엔터테인먼트</t>
+  </si>
+  <si>
+    <t>THE L1VE</t>
   </si>
   <si>
     <t>페포니 뮤직</t>
@@ -1261,7 +1264,7 @@
         <v>239</v>
       </c>
       <c r="G3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1284,7 +1287,7 @@
         <v>240</v>
       </c>
       <c r="G4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1330,7 +1333,7 @@
         <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1353,7 +1356,7 @@
         <v>242</v>
       </c>
       <c r="G7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1422,7 +1425,7 @@
         <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1445,7 +1448,7 @@
         <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1468,7 +1471,7 @@
         <v>247</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1491,7 +1494,7 @@
         <v>248</v>
       </c>
       <c r="G13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1514,7 +1517,7 @@
         <v>249</v>
       </c>
       <c r="G14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1560,7 +1563,7 @@
         <v>246</v>
       </c>
       <c r="G16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1583,7 +1586,7 @@
         <v>250</v>
       </c>
       <c r="G17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1606,7 +1609,7 @@
         <v>239</v>
       </c>
       <c r="G18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1629,7 +1632,7 @@
         <v>239</v>
       </c>
       <c r="G19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1669,7 +1672,7 @@
         <v>249</v>
       </c>
       <c r="G21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1692,7 +1695,7 @@
         <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1715,7 +1718,7 @@
         <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1761,7 +1764,7 @@
         <v>252</v>
       </c>
       <c r="G25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1784,7 +1787,7 @@
         <v>242</v>
       </c>
       <c r="G26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1807,7 +1810,7 @@
         <v>253</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1830,7 +1833,7 @@
         <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1853,7 +1856,7 @@
         <v>254</v>
       </c>
       <c r="G29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1899,7 +1902,7 @@
         <v>255</v>
       </c>
       <c r="G31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1945,7 +1948,7 @@
         <v>257</v>
       </c>
       <c r="G33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1968,7 +1971,7 @@
         <v>248</v>
       </c>
       <c r="G34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1991,7 +1994,7 @@
         <v>258</v>
       </c>
       <c r="G35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2031,7 +2034,7 @@
         <v>245</v>
       </c>
       <c r="G37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2071,7 +2074,7 @@
         <v>259</v>
       </c>
       <c r="G39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2094,7 +2097,7 @@
         <v>260</v>
       </c>
       <c r="G40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2117,7 +2120,7 @@
         <v>261</v>
       </c>
       <c r="G41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2140,7 +2143,7 @@
         <v>262</v>
       </c>
       <c r="G42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2163,7 +2166,7 @@
         <v>253</v>
       </c>
       <c r="G43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2245,6 +2248,12 @@
       <c r="E47" t="s">
         <v>52</v>
       </c>
+      <c r="F47" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
@@ -2266,7 +2275,7 @@
         <v>246</v>
       </c>
       <c r="G48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2286,10 +2295,10 @@
         <v>54</v>
       </c>
       <c r="F49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2326,10 +2335,10 @@
         <v>203</v>
       </c>
       <c r="F51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2366,10 +2375,10 @@
         <v>205</v>
       </c>
       <c r="F53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2432,7 +2441,7 @@
         <v>249</v>
       </c>
       <c r="G56" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2489,7 +2498,7 @@
         <v>246</v>
       </c>
       <c r="G59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2543,10 +2552,10 @@
         <v>211</v>
       </c>
       <c r="F62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G62" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2586,7 +2595,7 @@
         <v>246</v>
       </c>
       <c r="G64" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2640,10 +2649,10 @@
         <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2663,10 +2672,10 @@
         <v>214</v>
       </c>
       <c r="F68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G68" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2703,10 +2712,10 @@
         <v>75</v>
       </c>
       <c r="F70" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G70" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2746,7 +2755,7 @@
         <v>254</v>
       </c>
       <c r="G72" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2820,7 +2829,7 @@
         <v>257</v>
       </c>
       <c r="G76" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2874,10 +2883,10 @@
         <v>222</v>
       </c>
       <c r="F79" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G79" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2897,10 +2906,10 @@
         <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3175,10 +3184,10 @@
         <v>101</v>
       </c>
       <c r="F96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:5">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="273">
   <si>
     <t>날짜</t>
   </si>
@@ -412,8 +412,7 @@
     <t>윤하(Younha/ユンナ)</t>
   </si>
   <si>
-    <t>The Kid LAROI
-The Kid LAROI</t>
+    <t>The Kid LAROI</t>
   </si>
   <si>
     <t>김민석 (멜로망스)</t>
@@ -542,8 +541,7 @@
     <t>Maroon 5(마룬 파이브)</t>
   </si>
   <si>
-    <t>이민혁
-이민혁</t>
+    <t>이민혁</t>
   </si>
   <si>
     <t>DJ DOC</t>
@@ -2013,6 +2011,12 @@
       <c r="E36" t="s">
         <v>41</v>
       </c>
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -1715,6 +1715,12 @@
       <c r="F20" t="s">
         <v>28</v>
       </c>
+      <c r="G20" t="s">
+        <v>248</v>
+      </c>
+      <c r="H20" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
@@ -2838,6 +2844,12 @@
       </c>
       <c r="F66" t="s">
         <v>215</v>
+      </c>
+      <c r="G66" t="s">
+        <v>248</v>
+      </c>
+      <c r="H66" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:8">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-04-22</t>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="278">
   <si>
     <t>사이트</t>
   </si>
@@ -811,6 +811,9 @@
     <t>인터파크 엔터테인먼트</t>
   </si>
   <si>
+    <t>마크툽컴퍼니</t>
+  </si>
+  <si>
     <t>THE L1VE</t>
   </si>
   <si>
@@ -824,6 +827,12 @@
   </si>
   <si>
     <t>에버그로우</t>
+  </si>
+  <si>
+    <t>리쌍컴퍼니</t>
+  </si>
+  <si>
+    <t>D-Nation</t>
   </si>
   <si>
     <t>플렉스엠</t>
@@ -1277,7 +1286,7 @@
         <v>241</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1303,7 +1312,7 @@
         <v>242</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1355,7 +1364,7 @@
         <v>241</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1381,7 +1390,7 @@
         <v>244</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1459,7 +1468,7 @@
         <v>247</v>
       </c>
       <c r="H10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1485,7 +1494,7 @@
         <v>248</v>
       </c>
       <c r="H11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1511,7 +1520,7 @@
         <v>249</v>
       </c>
       <c r="H12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1537,7 +1546,7 @@
         <v>250</v>
       </c>
       <c r="H13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1563,7 +1572,7 @@
         <v>251</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1615,7 +1624,7 @@
         <v>248</v>
       </c>
       <c r="H16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1641,7 +1650,7 @@
         <v>252</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1667,7 +1676,7 @@
         <v>241</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1693,7 +1702,7 @@
         <v>241</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1719,7 +1728,7 @@
         <v>248</v>
       </c>
       <c r="H20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1745,7 +1754,7 @@
         <v>251</v>
       </c>
       <c r="H21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1771,7 +1780,7 @@
         <v>241</v>
       </c>
       <c r="H22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1797,7 +1806,7 @@
         <v>253</v>
       </c>
       <c r="H23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1849,7 +1858,7 @@
         <v>254</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1875,7 +1884,7 @@
         <v>244</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1901,7 +1910,7 @@
         <v>255</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1927,7 +1936,7 @@
         <v>256</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1953,7 +1962,7 @@
         <v>256</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2005,7 +2014,7 @@
         <v>257</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2057,7 +2066,7 @@
         <v>259</v>
       </c>
       <c r="H33" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2083,7 +2092,7 @@
         <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2109,7 +2118,7 @@
         <v>260</v>
       </c>
       <c r="H35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2135,7 +2144,7 @@
         <v>248</v>
       </c>
       <c r="H36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2161,7 +2170,7 @@
         <v>247</v>
       </c>
       <c r="H37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2207,7 +2216,7 @@
         <v>261</v>
       </c>
       <c r="H39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2233,7 +2242,7 @@
         <v>262</v>
       </c>
       <c r="H40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2259,7 +2268,7 @@
         <v>263</v>
       </c>
       <c r="H41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2285,7 +2294,7 @@
         <v>264</v>
       </c>
       <c r="H42" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2311,7 +2320,7 @@
         <v>255</v>
       </c>
       <c r="H43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2333,6 +2342,12 @@
       <c r="F44" t="s">
         <v>203</v>
       </c>
+      <c r="G44" t="s">
+        <v>265</v>
+      </c>
+      <c r="H44" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
@@ -2406,10 +2421,10 @@
         <v>54</v>
       </c>
       <c r="G47" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H47" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2435,7 +2450,7 @@
         <v>248</v>
       </c>
       <c r="H48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2458,10 +2473,10 @@
         <v>56</v>
       </c>
       <c r="G49" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2504,10 +2519,10 @@
         <v>205</v>
       </c>
       <c r="G51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2550,10 +2565,10 @@
         <v>207</v>
       </c>
       <c r="G53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2625,7 +2640,7 @@
         <v>251</v>
       </c>
       <c r="H56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2691,7 +2706,7 @@
         <v>248</v>
       </c>
       <c r="H59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2754,10 +2769,10 @@
         <v>213</v>
       </c>
       <c r="G62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2779,6 +2794,12 @@
       <c r="F63" t="s">
         <v>214</v>
       </c>
+      <c r="G63" t="s">
+        <v>271</v>
+      </c>
+      <c r="H63" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
@@ -2803,7 +2824,7 @@
         <v>248</v>
       </c>
       <c r="H64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2825,6 +2846,12 @@
       <c r="F65" t="s">
         <v>72</v>
       </c>
+      <c r="G65" t="s">
+        <v>272</v>
+      </c>
+      <c r="H65" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
@@ -2849,7 +2876,7 @@
         <v>248</v>
       </c>
       <c r="H66" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2872,10 +2899,10 @@
         <v>74</v>
       </c>
       <c r="G67" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2898,10 +2925,10 @@
         <v>216</v>
       </c>
       <c r="G68" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2944,10 +2971,10 @@
         <v>77</v>
       </c>
       <c r="G70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2993,7 +3020,7 @@
         <v>256</v>
       </c>
       <c r="H72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3079,7 +3106,7 @@
         <v>259</v>
       </c>
       <c r="H76" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3142,10 +3169,10 @@
         <v>224</v>
       </c>
       <c r="G79" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3168,10 +3195,10 @@
         <v>87</v>
       </c>
       <c r="G80" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3373,6 +3400,12 @@
       <c r="F90" t="s">
         <v>231</v>
       </c>
+      <c r="G90" t="s">
+        <v>248</v>
+      </c>
+      <c r="H90" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
@@ -3494,10 +3527,10 @@
         <v>103</v>
       </c>
       <c r="G96" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:6">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="278">
   <si>
     <t>사이트</t>
   </si>
@@ -2728,6 +2728,12 @@
       <c r="F60" t="s">
         <v>67</v>
       </c>
+      <c r="G60" t="s">
+        <v>268</v>
+      </c>
+      <c r="H60" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
@@ -3445,6 +3451,12 @@
       </c>
       <c r="F92" t="s">
         <v>233</v>
+      </c>
+      <c r="G92" t="s">
+        <v>268</v>
+      </c>
+      <c r="H92" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:8">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="277">
   <si>
     <t>사이트</t>
   </si>
@@ -793,7 +793,7 @@
     <t>플레디스</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>C9</t>
@@ -818,9 +818,6 @@
   </si>
   <si>
     <t>페포니 뮤직</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>JYP</t>
@@ -1286,7 +1283,7 @@
         <v>241</v>
       </c>
       <c r="H3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1312,7 +1309,7 @@
         <v>242</v>
       </c>
       <c r="H4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1364,7 +1361,7 @@
         <v>241</v>
       </c>
       <c r="H6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1390,7 +1387,7 @@
         <v>244</v>
       </c>
       <c r="H7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1468,7 +1465,7 @@
         <v>247</v>
       </c>
       <c r="H10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1494,7 +1491,7 @@
         <v>248</v>
       </c>
       <c r="H11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1520,7 +1517,7 @@
         <v>249</v>
       </c>
       <c r="H12" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1546,7 +1543,7 @@
         <v>250</v>
       </c>
       <c r="H13" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1572,7 +1569,7 @@
         <v>251</v>
       </c>
       <c r="H14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1624,7 +1621,7 @@
         <v>248</v>
       </c>
       <c r="H16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1650,7 +1647,7 @@
         <v>252</v>
       </c>
       <c r="H17" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1676,7 +1673,7 @@
         <v>241</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1702,7 +1699,7 @@
         <v>241</v>
       </c>
       <c r="H19" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1728,7 +1725,7 @@
         <v>248</v>
       </c>
       <c r="H20" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1754,7 +1751,7 @@
         <v>251</v>
       </c>
       <c r="H21" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1780,7 +1777,7 @@
         <v>241</v>
       </c>
       <c r="H22" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1806,7 +1803,7 @@
         <v>253</v>
       </c>
       <c r="H23" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1858,7 +1855,7 @@
         <v>254</v>
       </c>
       <c r="H25" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1884,7 +1881,7 @@
         <v>244</v>
       </c>
       <c r="H26" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1910,7 +1907,7 @@
         <v>255</v>
       </c>
       <c r="H27" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1936,7 +1933,7 @@
         <v>256</v>
       </c>
       <c r="H28" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1962,7 +1959,7 @@
         <v>256</v>
       </c>
       <c r="H29" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2014,7 +2011,7 @@
         <v>257</v>
       </c>
       <c r="H31" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2066,7 +2063,7 @@
         <v>259</v>
       </c>
       <c r="H33" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2092,7 +2089,7 @@
         <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2118,7 +2115,7 @@
         <v>260</v>
       </c>
       <c r="H35" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2144,7 +2141,7 @@
         <v>248</v>
       </c>
       <c r="H36" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2170,7 +2167,7 @@
         <v>247</v>
       </c>
       <c r="H37" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2216,7 +2213,7 @@
         <v>261</v>
       </c>
       <c r="H39" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2242,7 +2239,7 @@
         <v>262</v>
       </c>
       <c r="H40" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2268,7 +2265,7 @@
         <v>263</v>
       </c>
       <c r="H41" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2294,7 +2291,7 @@
         <v>264</v>
       </c>
       <c r="H42" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2320,7 +2317,7 @@
         <v>255</v>
       </c>
       <c r="H43" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2346,7 +2343,7 @@
         <v>265</v>
       </c>
       <c r="H44" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2424,7 +2421,7 @@
         <v>266</v>
       </c>
       <c r="H47" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2450,7 +2447,7 @@
         <v>248</v>
       </c>
       <c r="H48" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2476,7 +2473,7 @@
         <v>267</v>
       </c>
       <c r="H49" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2519,10 +2516,10 @@
         <v>205</v>
       </c>
       <c r="G51" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H51" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2565,10 +2562,10 @@
         <v>207</v>
       </c>
       <c r="G53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2640,7 +2637,7 @@
         <v>251</v>
       </c>
       <c r="H56" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2706,7 +2703,7 @@
         <v>248</v>
       </c>
       <c r="H59" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2729,10 +2726,10 @@
         <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H60" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2775,10 +2772,10 @@
         <v>213</v>
       </c>
       <c r="G62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H62" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2801,10 +2798,10 @@
         <v>214</v>
       </c>
       <c r="G63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H63" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2830,7 +2827,7 @@
         <v>248</v>
       </c>
       <c r="H64" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2853,10 +2850,10 @@
         <v>72</v>
       </c>
       <c r="G65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H65" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2882,7 +2879,7 @@
         <v>248</v>
       </c>
       <c r="H66" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2905,10 +2902,10 @@
         <v>74</v>
       </c>
       <c r="G67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H67" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2931,10 +2928,10 @@
         <v>216</v>
       </c>
       <c r="G68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H68" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2977,10 +2974,10 @@
         <v>77</v>
       </c>
       <c r="G70" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H70" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3026,7 +3023,7 @@
         <v>256</v>
       </c>
       <c r="H72" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3112,7 +3109,7 @@
         <v>259</v>
       </c>
       <c r="H76" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3175,10 +3172,10 @@
         <v>224</v>
       </c>
       <c r="G79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H79" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3201,10 +3198,10 @@
         <v>87</v>
       </c>
       <c r="G80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H80" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3410,7 +3407,7 @@
         <v>248</v>
       </c>
       <c r="H90" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3453,10 +3450,10 @@
         <v>233</v>
       </c>
       <c r="G92" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H92" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3539,10 +3536,10 @@
         <v>103</v>
       </c>
       <c r="G96" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H96" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:6">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220422_105549.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="278">
   <si>
     <t>사이트</t>
   </si>
@@ -797,6 +797,9 @@
   </si>
   <si>
     <t>C9</t>
+  </si>
+  <si>
+    <t>드림캐쳐 컴퍼니</t>
   </si>
   <si>
     <t>Jellyfish</t>
@@ -2189,6 +2192,12 @@
       <c r="F38" t="s">
         <v>197</v>
       </c>
+      <c r="G38" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
@@ -2210,7 +2219,7 @@
         <v>198</v>
       </c>
       <c r="G39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H39" t="s">
         <v>259</v>
@@ -2236,7 +2245,7 @@
         <v>199</v>
       </c>
       <c r="G40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H40" t="s">
         <v>259</v>
@@ -2262,7 +2271,7 @@
         <v>200</v>
       </c>
       <c r="G41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H41" t="s">
         <v>259</v>
@@ -2288,7 +2297,7 @@
         <v>201</v>
       </c>
       <c r="G42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H42" t="s">
         <v>259</v>
@@ -2340,7 +2349,7 @@
         <v>203</v>
       </c>
       <c r="G44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H44" t="s">
         <v>259</v>
@@ -2418,7 +2427,7 @@
         <v>54</v>
       </c>
       <c r="G47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H47" t="s">
         <v>259</v>
@@ -2470,7 +2479,7 @@
         <v>56</v>
       </c>
       <c r="G49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H49" t="s">
         <v>259</v>
@@ -2562,10 +2571,10 @@
         <v>207</v>
       </c>
       <c r="G53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2772,7 +2781,7 @@
         <v>213</v>
       </c>
       <c r="G62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H62" t="s">
         <v>259</v>
@@ -2798,7 +2807,7 @@
         <v>214</v>
       </c>
       <c r="G63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H63" t="s">
         <v>259</v>
@@ -2850,7 +2859,7 @@
         <v>72</v>
       </c>
       <c r="G65" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H65" t="s">
         <v>259</v>
@@ -2902,7 +2911,7 @@
         <v>74</v>
       </c>
       <c r="G67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H67" t="s">
         <v>259</v>
@@ -2928,7 +2937,7 @@
         <v>216</v>
       </c>
       <c r="G68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H68" t="s">
         <v>259</v>
@@ -3172,7 +3181,7 @@
         <v>224</v>
       </c>
       <c r="G79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H79" t="s">
         <v>259</v>
@@ -3198,7 +3207,7 @@
         <v>87</v>
       </c>
       <c r="G80" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H80" t="s">
         <v>259</v>
@@ -3536,7 +3545,7 @@
         <v>103</v>
       </c>
       <c r="G96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H96" t="s">
         <v>259</v>
